--- a/data/monitoringPhenology/2024-232_Senescence.xlsx
+++ b/data/monitoringPhenology/2024-232_Senescence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7412A573-90F8-C846-BA61-5502C0C3AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB7BC0-3DC7-4546-835E-846AC8C887E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="467">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1434,9 +1434,6 @@
   </si>
   <si>
     <t>lastleavesfell</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>only 4 leaves, very small</t>
@@ -2185,7 +2182,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2299,18 +2296,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:M437" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:M437" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="quercus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M437" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="11"/>
@@ -2650,9 +2636,9 @@
   <dimension ref="A1:M437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="I375" sqref="I375"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2705,7 +2691,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2725,7 +2711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2745,7 +2731,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2765,7 +2751,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2785,7 +2771,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +2791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2825,7 +2811,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2845,7 +2831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2851,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2885,7 +2871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2905,7 +2891,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2925,7 +2911,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +2931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2965,7 +2951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2985,7 +2971,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3005,7 +2991,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3025,7 +3011,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3045,7 +3031,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3065,7 +3051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3085,7 +3071,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3105,7 +3091,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3125,7 +3111,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3145,7 +3131,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3165,7 +3151,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3185,7 +3171,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3205,7 +3191,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3225,7 +3211,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3245,7 +3231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3265,7 +3251,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3285,7 +3271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3305,7 +3291,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3325,7 +3311,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3345,7 +3331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3365,7 +3351,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +3371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3405,7 +3391,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3425,7 +3411,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3445,7 +3431,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3465,7 +3451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3485,7 +3471,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3505,7 +3491,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3525,7 +3511,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3545,7 +3531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +3551,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3585,7 +3571,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3605,7 +3591,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3625,7 +3611,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3645,7 +3631,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3665,7 +3651,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3685,7 +3671,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3705,7 +3691,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3725,7 +3711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3745,7 +3731,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3765,7 +3751,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3785,7 +3771,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3805,7 +3791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3825,7 +3811,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3845,7 +3831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3865,7 +3851,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3885,7 +3871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3905,7 +3891,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3925,7 +3911,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3945,7 +3931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3965,7 +3951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3985,7 +3971,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4005,7 +3991,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4025,7 +4011,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4045,7 +4031,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4065,7 +4051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4085,7 +4071,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4105,7 +4091,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4125,7 +4111,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4145,7 +4131,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4165,7 +4151,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4185,7 +4171,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4205,7 +4191,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4225,7 +4211,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4245,7 +4231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4265,7 +4251,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4285,7 +4271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4305,7 +4291,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4325,7 +4311,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4345,7 +4331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4365,7 +4351,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4385,7 +4371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4405,7 +4391,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -4425,7 +4411,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -4445,7 +4431,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -4465,7 +4451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -4485,7 +4471,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4505,7 +4491,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4525,7 +4511,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4545,7 +4531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4565,7 +4551,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4585,7 +4571,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4605,7 +4591,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4625,7 +4611,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4645,7 +4631,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4665,7 +4651,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4685,7 +4671,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4705,7 +4691,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4725,7 +4711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4745,7 +4731,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4765,7 +4751,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -4785,7 +4771,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -4805,7 +4791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -4825,7 +4811,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4845,7 +4831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4865,7 +4851,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -4885,7 +4871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -4905,7 +4891,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -4925,7 +4911,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -4945,7 +4931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -4965,7 +4951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -4985,7 +4971,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5005,7 +4991,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -5025,7 +5011,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -5045,7 +5031,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5065,7 +5051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -5085,7 +5071,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -5105,7 +5091,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -5125,7 +5111,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -5145,7 +5131,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -5165,7 +5151,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -5185,7 +5171,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -5205,7 +5191,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -5225,7 +5211,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -5245,7 +5231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -5265,7 +5251,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5285,7 +5271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -5305,7 +5291,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -5325,7 +5311,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -5345,7 +5331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -5365,7 +5351,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -5385,7 +5371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -5405,7 +5391,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -5425,7 +5411,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -5445,7 +5431,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -5465,7 +5451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -5485,7 +5471,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -5505,7 +5491,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -5525,7 +5511,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -5545,7 +5531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -5565,7 +5551,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -5585,7 +5571,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -5605,7 +5591,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -5625,7 +5611,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -5645,7 +5631,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -5665,7 +5651,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -5685,7 +5671,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -5705,7 +5691,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -5725,7 +5711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -5745,7 +5731,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -5765,7 +5751,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -5785,7 +5771,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -5805,7 +5791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -5825,7 +5811,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -5845,7 +5831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -5865,7 +5851,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -5885,7 +5871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -5905,7 +5891,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -5925,7 +5911,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -5945,7 +5931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -5965,7 +5951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -5985,7 +5971,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6005,7 +5991,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6025,7 +6011,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6045,7 +6031,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6065,7 +6051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -6085,7 +6071,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -6105,7 +6091,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -6125,7 +6111,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -6145,7 +6131,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -6165,7 +6151,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6185,7 +6171,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6205,7 +6191,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6225,7 +6211,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6245,7 +6231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6265,7 +6251,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6285,7 +6271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6305,7 +6291,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -6324,8 +6310,20 @@
       <c r="G182">
         <v>232</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>28.1</v>
+      </c>
+      <c r="I182">
+        <v>17.3</v>
+      </c>
+      <c r="J182">
+        <v>35</v>
+      </c>
+      <c r="K182">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -6344,8 +6342,20 @@
       <c r="G183">
         <v>232</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>24.1</v>
+      </c>
+      <c r="I183">
+        <v>24.6</v>
+      </c>
+      <c r="J183">
+        <v>34.1</v>
+      </c>
+      <c r="K183">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -6364,8 +6374,20 @@
       <c r="G184">
         <v>232</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I184">
+        <v>22.6</v>
+      </c>
+      <c r="J184">
+        <v>38.9</v>
+      </c>
+      <c r="K184">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -6384,8 +6406,20 @@
       <c r="G185">
         <v>232</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <v>30.6</v>
+      </c>
+      <c r="I185">
+        <v>18</v>
+      </c>
+      <c r="J185">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K185">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -6404,8 +6438,20 @@
       <c r="G186">
         <v>232</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>33.9</v>
+      </c>
+      <c r="I186">
+        <v>30.2</v>
+      </c>
+      <c r="J186">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K186">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -6424,8 +6470,20 @@
       <c r="G187">
         <v>232</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>21.9</v>
+      </c>
+      <c r="I187">
+        <v>23.6</v>
+      </c>
+      <c r="J187">
+        <v>35.9</v>
+      </c>
+      <c r="K187">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -6444,8 +6502,20 @@
       <c r="G188">
         <v>232</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>24.3</v>
+      </c>
+      <c r="I188">
+        <v>31.5</v>
+      </c>
+      <c r="J188">
+        <v>31.2</v>
+      </c>
+      <c r="K188">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -6464,8 +6534,20 @@
       <c r="G189">
         <v>232</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>28.3</v>
+      </c>
+      <c r="I189">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J189">
+        <v>39.1</v>
+      </c>
+      <c r="K189">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -6484,8 +6566,20 @@
       <c r="G190">
         <v>232</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>23.4</v>
+      </c>
+      <c r="I190">
+        <v>14.2</v>
+      </c>
+      <c r="J190">
+        <v>30.8</v>
+      </c>
+      <c r="K190">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -6504,8 +6598,20 @@
       <c r="G191">
         <v>232</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>24.6</v>
+      </c>
+      <c r="I191">
+        <v>21.4</v>
+      </c>
+      <c r="J191">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K191">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -6524,8 +6630,20 @@
       <c r="G192">
         <v>232</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>16.8</v>
+      </c>
+      <c r="I192">
+        <v>33.4</v>
+      </c>
+      <c r="J192">
+        <v>26.9</v>
+      </c>
+      <c r="K192">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -6544,8 +6662,20 @@
       <c r="G193">
         <v>232</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>13.7</v>
+      </c>
+      <c r="I193" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="J193" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="K193">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -6564,8 +6694,20 @@
       <c r="G194">
         <v>232</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>28.5</v>
+      </c>
+      <c r="I194">
+        <v>34</v>
+      </c>
+      <c r="J194">
+        <v>37.5</v>
+      </c>
+      <c r="K194">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -6584,8 +6726,20 @@
       <c r="G195">
         <v>232</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>27.4</v>
+      </c>
+      <c r="I195">
+        <v>31.7</v>
+      </c>
+      <c r="J195">
+        <v>35.9</v>
+      </c>
+      <c r="K195">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -6604,8 +6758,20 @@
       <c r="G196">
         <v>232</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <v>22.7</v>
+      </c>
+      <c r="I196">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J196">
+        <v>22.8</v>
+      </c>
+      <c r="K196">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -6624,8 +6790,20 @@
       <c r="G197">
         <v>232</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>13.4</v>
+      </c>
+      <c r="I197">
+        <v>19.2</v>
+      </c>
+      <c r="J197">
+        <v>26.3</v>
+      </c>
+      <c r="K197">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -6644,8 +6822,20 @@
       <c r="G198">
         <v>232</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I198">
+        <v>20</v>
+      </c>
+      <c r="J198">
+        <v>32.6</v>
+      </c>
+      <c r="K198">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -6664,8 +6854,20 @@
       <c r="G199">
         <v>232</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>30.8</v>
+      </c>
+      <c r="I199">
+        <v>34</v>
+      </c>
+      <c r="J199">
+        <v>17.8</v>
+      </c>
+      <c r="K199">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -6684,8 +6886,20 @@
       <c r="G200">
         <v>232</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>28.9</v>
+      </c>
+      <c r="I200">
+        <v>14</v>
+      </c>
+      <c r="J200">
+        <v>31.3</v>
+      </c>
+      <c r="K200">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -6704,8 +6918,20 @@
       <c r="G201">
         <v>232</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <v>32</v>
+      </c>
+      <c r="I201">
+        <v>38.1</v>
+      </c>
+      <c r="J201">
+        <v>29</v>
+      </c>
+      <c r="K201">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -6724,8 +6950,20 @@
       <c r="G202">
         <v>232</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <v>25</v>
+      </c>
+      <c r="I202">
+        <v>12.3</v>
+      </c>
+      <c r="J202">
+        <v>27.6</v>
+      </c>
+      <c r="K202">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -6744,8 +6982,20 @@
       <c r="G203">
         <v>232</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>29</v>
+      </c>
+      <c r="I203">
+        <v>31</v>
+      </c>
+      <c r="J203">
+        <v>25.5</v>
+      </c>
+      <c r="K203">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -6764,8 +7014,20 @@
       <c r="G204">
         <v>232</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>23.7</v>
+      </c>
+      <c r="I204">
+        <v>25.2</v>
+      </c>
+      <c r="J204">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K204">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -6784,8 +7046,20 @@
       <c r="G205">
         <v>232</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>25.5</v>
+      </c>
+      <c r="I205">
+        <v>19</v>
+      </c>
+      <c r="J205">
+        <v>22.7</v>
+      </c>
+      <c r="K205">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -6804,8 +7078,20 @@
       <c r="G206">
         <v>232</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I206">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J206">
+        <v>32.6</v>
+      </c>
+      <c r="K206">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -6824,8 +7110,20 @@
       <c r="G207">
         <v>232</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>25.3</v>
+      </c>
+      <c r="I207">
+        <v>23.9</v>
+      </c>
+      <c r="J207">
+        <v>45.1</v>
+      </c>
+      <c r="K207">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -6844,8 +7142,20 @@
       <c r="G208">
         <v>232</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>23.9</v>
+      </c>
+      <c r="I208">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J208">
+        <v>28.6</v>
+      </c>
+      <c r="K208">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -6864,8 +7174,20 @@
       <c r="G209">
         <v>232</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>25.1</v>
+      </c>
+      <c r="I209">
+        <v>22.5</v>
+      </c>
+      <c r="J209">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K209">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -6884,8 +7206,20 @@
       <c r="G210">
         <v>232</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>37.9</v>
+      </c>
+      <c r="I210">
+        <v>24.5</v>
+      </c>
+      <c r="J210">
+        <v>33.5</v>
+      </c>
+      <c r="K210">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -6904,8 +7238,20 @@
       <c r="G211">
         <v>232</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>24.1</v>
+      </c>
+      <c r="I211">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J211">
+        <v>30.4</v>
+      </c>
+      <c r="K211">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -6924,8 +7270,20 @@
       <c r="G212">
         <v>232</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I212">
+        <v>21.6</v>
+      </c>
+      <c r="J212">
+        <v>23.8</v>
+      </c>
+      <c r="K212">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -6944,8 +7302,20 @@
       <c r="G213">
         <v>232</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>35.4</v>
+      </c>
+      <c r="I213">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J213">
+        <v>33.4</v>
+      </c>
+      <c r="K213">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -6964,8 +7334,20 @@
       <c r="G214">
         <v>232</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>27.8</v>
+      </c>
+      <c r="I214">
+        <v>16.2</v>
+      </c>
+      <c r="J214">
+        <v>32.4</v>
+      </c>
+      <c r="K214">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -6984,8 +7366,20 @@
       <c r="G215">
         <v>232</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <v>15.8</v>
+      </c>
+      <c r="I215">
+        <v>19.2</v>
+      </c>
+      <c r="J215">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K215">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -7004,8 +7398,20 @@
       <c r="G216">
         <v>232</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>17.5</v>
+      </c>
+      <c r="I216">
+        <v>20.6</v>
+      </c>
+      <c r="J216">
+        <v>30</v>
+      </c>
+      <c r="K216">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -7024,8 +7430,20 @@
       <c r="G217">
         <v>232</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>24.8</v>
+      </c>
+      <c r="I217">
+        <v>28.6</v>
+      </c>
+      <c r="J217">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K217">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -7044,8 +7462,20 @@
       <c r="G218">
         <v>232</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>29.2</v>
+      </c>
+      <c r="I218">
+        <v>25.2</v>
+      </c>
+      <c r="J218">
+        <v>34.1</v>
+      </c>
+      <c r="K218">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -7064,8 +7494,20 @@
       <c r="G219">
         <v>232</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>32.5</v>
+      </c>
+      <c r="I219">
+        <v>34.6</v>
+      </c>
+      <c r="J219">
+        <v>36.4</v>
+      </c>
+      <c r="K219">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -7084,8 +7526,20 @@
       <c r="G220">
         <v>232</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>24.4</v>
+      </c>
+      <c r="I220">
+        <v>26.6</v>
+      </c>
+      <c r="J220">
+        <v>23.6</v>
+      </c>
+      <c r="K220">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -7104,8 +7558,20 @@
       <c r="G221">
         <v>232</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>28.1</v>
+      </c>
+      <c r="I221">
+        <v>25.3</v>
+      </c>
+      <c r="J221">
+        <v>21.8</v>
+      </c>
+      <c r="K221">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -7124,8 +7590,20 @@
       <c r="G222">
         <v>232</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>18.3</v>
+      </c>
+      <c r="I222">
+        <v>27.1</v>
+      </c>
+      <c r="J222">
+        <v>20.9</v>
+      </c>
+      <c r="K222">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -7144,8 +7622,20 @@
       <c r="G223">
         <v>232</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>31.3</v>
+      </c>
+      <c r="I223">
+        <v>27.7</v>
+      </c>
+      <c r="J223">
+        <v>36.9</v>
+      </c>
+      <c r="K223">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -7164,8 +7654,20 @@
       <c r="G224">
         <v>232</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>16.8</v>
+      </c>
+      <c r="I224">
+        <v>26</v>
+      </c>
+      <c r="J224">
+        <v>24.9</v>
+      </c>
+      <c r="K224">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -7184,8 +7686,20 @@
       <c r="G225">
         <v>232</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>32.5</v>
+      </c>
+      <c r="I225">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="J225">
+        <v>29.9</v>
+      </c>
+      <c r="K225">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -7204,8 +7718,20 @@
       <c r="G226">
         <v>232</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>28.1</v>
+      </c>
+      <c r="I226">
+        <v>23.3</v>
+      </c>
+      <c r="J226">
+        <v>25.1</v>
+      </c>
+      <c r="K226">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -7224,8 +7750,20 @@
       <c r="G227">
         <v>232</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>32.5</v>
+      </c>
+      <c r="I227">
+        <v>27</v>
+      </c>
+      <c r="J227">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K227">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -7244,8 +7782,20 @@
       <c r="G228">
         <v>232</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>15.6</v>
+      </c>
+      <c r="I228">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J228">
+        <v>37.4</v>
+      </c>
+      <c r="K228">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -7264,8 +7814,20 @@
       <c r="G229">
         <v>232</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I229">
+        <v>36.5</v>
+      </c>
+      <c r="J229">
+        <v>33</v>
+      </c>
+      <c r="K229">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -7284,8 +7846,20 @@
       <c r="G230">
         <v>232</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>10.6</v>
+      </c>
+      <c r="I230">
+        <v>39.1</v>
+      </c>
+      <c r="J230">
+        <v>21.4</v>
+      </c>
+      <c r="K230">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -7304,8 +7878,20 @@
       <c r="G231">
         <v>232</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>25.9</v>
+      </c>
+      <c r="I231">
+        <v>11.4</v>
+      </c>
+      <c r="J231">
+        <v>32.6</v>
+      </c>
+      <c r="K231">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -7324,8 +7910,20 @@
       <c r="G232">
         <v>232</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>13.6</v>
+      </c>
+      <c r="I232">
+        <v>25.6</v>
+      </c>
+      <c r="J232">
+        <v>24.9</v>
+      </c>
+      <c r="K232">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -7344,8 +7942,22 @@
       <c r="G233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I233">
+        <v>30</v>
+      </c>
+      <c r="J233">
+        <v>30.1</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -7364,8 +7976,20 @@
       <c r="G234">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>31.9</v>
+      </c>
+      <c r="I234">
+        <v>29.7</v>
+      </c>
+      <c r="J234">
+        <v>26.9</v>
+      </c>
+      <c r="K234">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -7384,8 +8008,20 @@
       <c r="G235">
         <v>232</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>23</v>
+      </c>
+      <c r="I235">
+        <v>37.4</v>
+      </c>
+      <c r="J235">
+        <v>28.4</v>
+      </c>
+      <c r="K235">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -7404,8 +8040,20 @@
       <c r="G236">
         <v>232</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>28</v>
+      </c>
+      <c r="I236">
+        <v>23.6</v>
+      </c>
+      <c r="J236">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K236">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -7424,8 +8072,20 @@
       <c r="G237">
         <v>232</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I237">
+        <v>24.7</v>
+      </c>
+      <c r="J237">
+        <v>36.4</v>
+      </c>
+      <c r="K237">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -7444,8 +8104,20 @@
       <c r="G238">
         <v>232</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>26.5</v>
+      </c>
+      <c r="I238">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J238">
+        <v>27.9</v>
+      </c>
+      <c r="K238">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -7464,8 +8136,20 @@
       <c r="G239">
         <v>232</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>29.6</v>
+      </c>
+      <c r="I239">
+        <v>29.6</v>
+      </c>
+      <c r="J239">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K239">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -7484,8 +8168,20 @@
       <c r="G240">
         <v>232</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>25.2</v>
+      </c>
+      <c r="I240">
+        <v>27.1</v>
+      </c>
+      <c r="J240">
+        <v>35.6</v>
+      </c>
+      <c r="K240">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -7504,8 +8200,20 @@
       <c r="G241">
         <v>232</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>15.9</v>
+      </c>
+      <c r="I241">
+        <v>31.2</v>
+      </c>
+      <c r="J241">
+        <v>35.9</v>
+      </c>
+      <c r="K241">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -7524,8 +8232,20 @@
       <c r="G242">
         <v>232</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I242">
+        <v>28.3</v>
+      </c>
+      <c r="J242">
+        <v>29.7</v>
+      </c>
+      <c r="K242">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -7544,8 +8264,20 @@
       <c r="G243">
         <v>232</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>29.2</v>
+      </c>
+      <c r="I243">
+        <v>14.1</v>
+      </c>
+      <c r="J243">
+        <v>32.1</v>
+      </c>
+      <c r="K243">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -7564,8 +8296,20 @@
       <c r="G244">
         <v>232</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>19.3</v>
+      </c>
+      <c r="I244">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J244">
+        <v>40</v>
+      </c>
+      <c r="K244">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -7584,8 +8328,20 @@
       <c r="G245">
         <v>232</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>35.4</v>
+      </c>
+      <c r="I245">
+        <v>22.9</v>
+      </c>
+      <c r="J245">
+        <v>27.8</v>
+      </c>
+      <c r="K245">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -7604,8 +8360,20 @@
       <c r="G246">
         <v>232</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>21.2</v>
+      </c>
+      <c r="I246">
+        <v>34.4</v>
+      </c>
+      <c r="J246">
+        <v>37.6</v>
+      </c>
+      <c r="K246">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -7624,8 +8392,20 @@
       <c r="G247">
         <v>232</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>5.6</v>
+      </c>
+      <c r="I247">
+        <v>28.3</v>
+      </c>
+      <c r="J247">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="K247">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -7644,8 +8424,20 @@
       <c r="G248">
         <v>232</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>20.5</v>
+      </c>
+      <c r="I248">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J248">
+        <v>33</v>
+      </c>
+      <c r="K248">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -7664,8 +8456,20 @@
       <c r="G249">
         <v>232</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H249" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="I249" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="J249" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="K249" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -7684,8 +8488,20 @@
       <c r="G250">
         <v>232</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>28.7</v>
+      </c>
+      <c r="I250">
+        <v>34.5</v>
+      </c>
+      <c r="J250">
+        <v>16.7</v>
+      </c>
+      <c r="K250">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -7704,8 +8520,20 @@
       <c r="G251">
         <v>232</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>26.6</v>
+      </c>
+      <c r="I251">
+        <v>33.6</v>
+      </c>
+      <c r="J251">
+        <v>29.3</v>
+      </c>
+      <c r="K251">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -7724,8 +8552,20 @@
       <c r="G252">
         <v>232</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>16.8</v>
+      </c>
+      <c r="I252">
+        <v>27.2</v>
+      </c>
+      <c r="J252">
+        <v>27</v>
+      </c>
+      <c r="K252">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -7744,8 +8584,20 @@
       <c r="G253">
         <v>232</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I253">
+        <v>31.8</v>
+      </c>
+      <c r="J253">
+        <v>27.2</v>
+      </c>
+      <c r="K253">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -7764,8 +8616,20 @@
       <c r="G254">
         <v>232</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>30.3</v>
+      </c>
+      <c r="I254">
+        <v>32.9</v>
+      </c>
+      <c r="J254">
+        <v>24.5</v>
+      </c>
+      <c r="K254">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -7784,8 +8648,20 @@
       <c r="G255">
         <v>232</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>29.3</v>
+      </c>
+      <c r="I255">
+        <v>10.5</v>
+      </c>
+      <c r="J255">
+        <v>28.9</v>
+      </c>
+      <c r="K255">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -7804,8 +8680,20 @@
       <c r="G256">
         <v>232</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>16.2</v>
+      </c>
+      <c r="I256">
+        <v>27.4</v>
+      </c>
+      <c r="J256">
+        <v>33</v>
+      </c>
+      <c r="K256">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -7824,8 +8712,20 @@
       <c r="G257">
         <v>232</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>13.8</v>
+      </c>
+      <c r="I257">
+        <v>15.3</v>
+      </c>
+      <c r="J257">
+        <v>21</v>
+      </c>
+      <c r="K257">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -7844,8 +8744,20 @@
       <c r="G258">
         <v>232</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>29.6</v>
+      </c>
+      <c r="I258">
+        <v>3.4</v>
+      </c>
+      <c r="J258">
+        <v>37.4</v>
+      </c>
+      <c r="K258">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -7864,8 +8776,20 @@
       <c r="G259">
         <v>232</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>31.7</v>
+      </c>
+      <c r="I259">
+        <v>21.8</v>
+      </c>
+      <c r="J259">
+        <v>28.8</v>
+      </c>
+      <c r="K259">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -7884,8 +8808,20 @@
       <c r="G260">
         <v>232</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>23.8</v>
+      </c>
+      <c r="I260">
+        <v>24</v>
+      </c>
+      <c r="J260">
+        <v>38.4</v>
+      </c>
+      <c r="K260">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -7904,8 +8840,20 @@
       <c r="G261">
         <v>232</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>33.9</v>
+      </c>
+      <c r="I261">
+        <v>32</v>
+      </c>
+      <c r="J261">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K261">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -7924,8 +8872,20 @@
       <c r="G262">
         <v>232</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>27.6</v>
+      </c>
+      <c r="I262">
+        <v>22.5</v>
+      </c>
+      <c r="J262">
+        <v>27.8</v>
+      </c>
+      <c r="K262">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -7944,8 +8904,20 @@
       <c r="G263">
         <v>232</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>32.9</v>
+      </c>
+      <c r="I263">
+        <v>39.9</v>
+      </c>
+      <c r="J263">
+        <v>39.1</v>
+      </c>
+      <c r="K263">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -7964,8 +8936,20 @@
       <c r="G264">
         <v>232</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>24.3</v>
+      </c>
+      <c r="I264">
+        <v>27.4</v>
+      </c>
+      <c r="J264">
+        <v>35.4</v>
+      </c>
+      <c r="K264">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -7984,8 +8968,20 @@
       <c r="G265">
         <v>232</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>36</v>
+      </c>
+      <c r="I265">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="J265">
+        <v>21.6</v>
+      </c>
+      <c r="K265">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -8004,8 +9000,20 @@
       <c r="G266">
         <v>232</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>13.1</v>
+      </c>
+      <c r="I266">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J266">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K266">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -8024,8 +9032,20 @@
       <c r="G267">
         <v>232</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>28.8</v>
+      </c>
+      <c r="I267">
+        <v>21.9</v>
+      </c>
+      <c r="J267">
+        <v>19.8</v>
+      </c>
+      <c r="K267">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -8044,14 +9064,8 @@
       <c r="G268">
         <v>232</v>
       </c>
-      <c r="L268" t="s">
-        <v>465</v>
-      </c>
-      <c r="M268" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>287</v>
       </c>
@@ -8070,14 +9084,8 @@
       <c r="G269">
         <v>232</v>
       </c>
-      <c r="L269" t="s">
-        <v>465</v>
-      </c>
-      <c r="M269" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>288</v>
       </c>
@@ -8096,14 +9104,8 @@
       <c r="G270">
         <v>232</v>
       </c>
-      <c r="L270" t="s">
-        <v>465</v>
-      </c>
-      <c r="M270" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -8122,14 +9124,8 @@
       <c r="G271">
         <v>232</v>
       </c>
-      <c r="L271" t="s">
-        <v>465</v>
-      </c>
-      <c r="M271" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>290</v>
       </c>
@@ -8149,7 +9145,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -8169,7 +9165,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -8189,7 +9185,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -8209,7 +9205,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -8229,7 +9225,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -8249,7 +9245,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -8269,7 +9265,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -8289,7 +9285,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -8309,7 +9305,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -8329,7 +9325,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -8349,7 +9345,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -8369,7 +9365,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -8389,7 +9385,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -8409,7 +9405,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -8429,7 +9425,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -8449,7 +9445,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -8469,7 +9465,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -8489,7 +9485,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -8509,7 +9505,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -8529,7 +9525,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -8549,7 +9545,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -8569,7 +9565,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -8589,7 +9585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -8609,7 +9605,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -8629,7 +9625,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -8649,7 +9645,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -8669,7 +9665,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -8689,7 +9685,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -8709,7 +9705,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -8729,7 +9725,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -8746,13 +9742,13 @@
         <v>286</v>
       </c>
       <c r="F302" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G302">
         <v>232</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -8772,7 +9768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -8792,7 +9788,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -8812,7 +9808,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -8832,7 +9828,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -8852,7 +9848,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -8872,7 +9868,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -8892,7 +9888,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -8912,7 +9908,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -8932,7 +9928,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -8952,7 +9948,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -8972,7 +9968,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -8992,7 +9988,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -9012,7 +10008,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -9032,7 +10028,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -9052,7 +10048,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -9072,7 +10068,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -9092,7 +10088,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -9112,7 +10108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -9132,7 +10128,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -9152,7 +10148,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -9172,7 +10168,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -9192,7 +10188,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -9212,7 +10208,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -9232,7 +10228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -9252,7 +10248,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -9272,7 +10268,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -9292,7 +10288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -9312,7 +10308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -9332,7 +10328,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -9352,7 +10348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -9372,7 +10368,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -9392,7 +10388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -9412,7 +10408,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -9432,7 +10428,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -9452,7 +10448,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -9472,7 +10468,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -9492,7 +10488,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -9512,7 +10508,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -9532,7 +10528,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -9552,7 +10548,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -9572,7 +10568,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -9592,7 +10588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -9612,7 +10608,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -9632,7 +10628,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -9652,7 +10648,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -9684,7 +10680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>369</v>
       </c>
@@ -9716,7 +10712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>370</v>
       </c>
@@ -9748,7 +10744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>371</v>
       </c>
@@ -9780,7 +10776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>372</v>
       </c>
@@ -9812,7 +10808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>373</v>
       </c>
@@ -9844,7 +10840,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>374</v>
       </c>
@@ -9863,20 +10859,20 @@
       <c r="G354">
         <v>232</v>
       </c>
-      <c r="H354" s="1">
+      <c r="H354">
         <v>13.8</v>
       </c>
-      <c r="I354" s="1">
+      <c r="I354">
         <v>14.4</v>
       </c>
-      <c r="J354" s="1">
+      <c r="J354">
         <v>14.7</v>
       </c>
-      <c r="K354" s="1">
+      <c r="K354">
         <v>90</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>375</v>
       </c>
@@ -9895,10 +10891,10 @@
       <c r="G355">
         <v>232</v>
       </c>
-      <c r="H355" s="1">
+      <c r="H355">
         <v>15.8</v>
       </c>
-      <c r="I355" s="1">
+      <c r="I355">
         <v>16.5</v>
       </c>
       <c r="J355">
@@ -9908,7 +10904,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>376</v>
       </c>
@@ -9937,10 +10933,10 @@
         <v>18.2</v>
       </c>
       <c r="K356" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>377</v>
       </c>
@@ -10132,7 +11128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -10164,7 +11160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -10183,20 +11179,20 @@
       <c r="G364">
         <v>232</v>
       </c>
-      <c r="H364" s="1">
+      <c r="H364">
         <v>11.5</v>
       </c>
-      <c r="I364" s="1">
+      <c r="I364">
         <v>8.5</v>
       </c>
-      <c r="J364" s="1">
+      <c r="J364">
         <v>15.4</v>
       </c>
-      <c r="K364" s="1">
+      <c r="K364">
         <v>90</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -10215,20 +11211,20 @@
       <c r="G365">
         <v>232</v>
       </c>
-      <c r="H365" s="1">
+      <c r="H365">
         <v>19.600000000000001</v>
       </c>
-      <c r="I365" s="1">
+      <c r="I365">
         <v>12.1</v>
       </c>
-      <c r="J365" s="1">
+      <c r="J365">
         <v>14.6</v>
       </c>
-      <c r="K365" s="1">
+      <c r="K365">
         <v>90</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -10247,20 +11243,20 @@
       <c r="G366">
         <v>232</v>
       </c>
-      <c r="H366" s="1">
+      <c r="H366">
         <v>13.6</v>
       </c>
-      <c r="I366" s="1">
+      <c r="I366">
         <v>14.6</v>
       </c>
-      <c r="J366" s="1">
+      <c r="J366">
         <v>15.3</v>
       </c>
-      <c r="K366" s="1">
+      <c r="K366">
         <v>95</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -10279,20 +11275,20 @@
       <c r="G367">
         <v>232</v>
       </c>
-      <c r="H367" s="1">
+      <c r="H367">
         <v>22.2</v>
       </c>
-      <c r="I367" s="1">
+      <c r="I367">
         <v>23.9</v>
       </c>
-      <c r="J367" s="1">
+      <c r="J367">
         <v>17</v>
       </c>
-      <c r="K367" s="1">
+      <c r="K367">
         <v>95</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -10324,7 +11320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -10356,7 +11352,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -10388,7 +11384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -10420,7 +11416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -10612,7 +11608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -10644,7 +11640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -10663,20 +11659,20 @@
       <c r="G379">
         <v>232</v>
       </c>
-      <c r="H379" s="1">
+      <c r="H379">
         <v>11.7</v>
       </c>
-      <c r="I379" s="1">
+      <c r="I379">
         <v>16.100000000000001</v>
       </c>
-      <c r="J379" s="1">
+      <c r="J379">
         <v>12.9</v>
       </c>
-      <c r="K379" s="1">
+      <c r="K379">
         <v>90</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -10695,20 +11691,20 @@
       <c r="G380">
         <v>232</v>
       </c>
-      <c r="H380" s="1">
+      <c r="H380">
         <v>14.8</v>
       </c>
-      <c r="I380" s="1">
+      <c r="I380">
         <v>13</v>
       </c>
-      <c r="J380" s="1">
+      <c r="J380">
         <v>8.5</v>
       </c>
-      <c r="K380" s="1">
+      <c r="K380">
         <v>80</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -10727,20 +11723,20 @@
       <c r="G381">
         <v>232</v>
       </c>
-      <c r="H381" s="1">
+      <c r="H381">
         <v>13.3</v>
       </c>
-      <c r="I381" s="1">
+      <c r="I381">
         <v>9.6</v>
       </c>
-      <c r="J381" s="1">
+      <c r="J381">
         <v>10.7</v>
       </c>
-      <c r="K381" s="1">
+      <c r="K381">
         <v>90</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -10759,20 +11755,20 @@
       <c r="G382">
         <v>232</v>
       </c>
-      <c r="H382" s="1">
+      <c r="H382">
         <v>14.8</v>
       </c>
-      <c r="I382" s="1">
+      <c r="I382">
         <v>16.899999999999999</v>
       </c>
-      <c r="J382" s="1">
+      <c r="J382">
         <v>15.7</v>
       </c>
-      <c r="K382" s="1">
+      <c r="K382">
         <v>90</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -10804,7 +11800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -10836,7 +11832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -10868,7 +11864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -10900,7 +11896,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -11047,17 +12043,17 @@
       <c r="G391">
         <v>232</v>
       </c>
-      <c r="H391" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I391" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J391" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="K391" s="1" t="s">
-        <v>467</v>
+      <c r="H391" t="s">
+        <v>466</v>
+      </c>
+      <c r="I391" t="s">
+        <v>466</v>
+      </c>
+      <c r="J391" t="s">
+        <v>466</v>
+      </c>
+      <c r="K391" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -11079,20 +12075,20 @@
       <c r="G392">
         <v>232</v>
       </c>
-      <c r="H392" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I392" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J392" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="K392" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H392" t="s">
+        <v>466</v>
+      </c>
+      <c r="I392" t="s">
+        <v>466</v>
+      </c>
+      <c r="J392" t="s">
+        <v>466</v>
+      </c>
+      <c r="K392" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -11124,7 +12120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -11143,20 +12139,20 @@
       <c r="G394">
         <v>232</v>
       </c>
-      <c r="H394" s="1">
+      <c r="H394">
         <v>17.600000000000001</v>
       </c>
-      <c r="I394" s="1">
+      <c r="I394">
         <v>15.6</v>
       </c>
-      <c r="J394" s="1">
+      <c r="J394">
         <v>11</v>
       </c>
-      <c r="K394" s="1">
+      <c r="K394">
         <v>90</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -11175,20 +12171,20 @@
       <c r="G395">
         <v>232</v>
       </c>
-      <c r="H395" s="1">
+      <c r="H395">
         <v>16.100000000000001</v>
       </c>
-      <c r="I395" s="1">
+      <c r="I395">
         <v>17</v>
       </c>
-      <c r="J395" s="1">
+      <c r="J395">
         <v>12.6</v>
       </c>
-      <c r="K395" s="1">
+      <c r="K395">
         <v>90</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -11207,20 +12203,20 @@
       <c r="G396">
         <v>232</v>
       </c>
-      <c r="H396" s="1">
+      <c r="H396">
         <v>10.7</v>
       </c>
-      <c r="I396" s="1">
+      <c r="I396">
         <v>9.1</v>
       </c>
-      <c r="J396" s="1">
+      <c r="J396">
         <v>12.9</v>
       </c>
-      <c r="K396" s="1">
+      <c r="K396">
         <v>70</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -11252,7 +12248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -11284,7 +12280,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -11316,7 +12312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -11348,7 +12344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -11380,7 +12376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -11572,7 +12568,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -11604,7 +12600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -11636,7 +12632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -11668,7 +12664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -11700,7 +12696,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -11732,7 +12728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -11751,20 +12747,20 @@
       <c r="G413">
         <v>232</v>
       </c>
-      <c r="H413" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I413" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J413" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="K413" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H413" t="s">
+        <v>466</v>
+      </c>
+      <c r="I413" t="s">
+        <v>466</v>
+      </c>
+      <c r="J413" t="s">
+        <v>466</v>
+      </c>
+      <c r="K413" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -11783,20 +12779,20 @@
       <c r="G414">
         <v>232</v>
       </c>
-      <c r="H414" s="1">
+      <c r="H414">
         <v>24.5</v>
       </c>
-      <c r="I414" s="1">
+      <c r="I414">
         <v>16.8</v>
       </c>
-      <c r="J414" s="1">
+      <c r="J414">
         <v>19.399999999999999</v>
       </c>
-      <c r="K414" s="1">
+      <c r="K414">
         <v>90</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -11815,20 +12811,20 @@
       <c r="G415">
         <v>232</v>
       </c>
-      <c r="H415" s="1">
+      <c r="H415">
         <v>15.1</v>
       </c>
-      <c r="I415" s="1">
+      <c r="I415">
         <v>12.6</v>
       </c>
-      <c r="J415" s="1">
+      <c r="J415">
         <v>12.1</v>
       </c>
-      <c r="K415" s="1">
+      <c r="K415">
         <v>80</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -11847,20 +12843,20 @@
       <c r="G416">
         <v>232</v>
       </c>
-      <c r="H416" s="1">
+      <c r="H416">
         <v>19.399999999999999</v>
       </c>
-      <c r="I416" s="1">
+      <c r="I416">
         <v>19.7</v>
       </c>
-      <c r="J416" s="1">
+      <c r="J416">
         <v>18.899999999999999</v>
       </c>
-      <c r="K416" s="1">
+      <c r="K416">
         <v>90</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -11911,16 +12907,16 @@
       <c r="G418">
         <v>232</v>
       </c>
-      <c r="H418" s="1">
+      <c r="H418">
         <v>24</v>
       </c>
-      <c r="I418" s="1">
+      <c r="I418">
         <v>25.4</v>
       </c>
-      <c r="J418" s="1">
+      <c r="J418">
         <v>29.8</v>
       </c>
-      <c r="K418" s="1">
+      <c r="K418">
         <v>95</v>
       </c>
     </row>
@@ -11943,16 +12939,16 @@
       <c r="G419">
         <v>232</v>
       </c>
-      <c r="H419" s="1">
+      <c r="H419">
         <v>15</v>
       </c>
-      <c r="I419" s="1">
+      <c r="I419">
         <v>15.7</v>
       </c>
-      <c r="J419" s="1">
+      <c r="J419">
         <v>18.7</v>
       </c>
-      <c r="K419" s="1">
+      <c r="K419">
         <v>90</v>
       </c>
     </row>
@@ -11975,16 +12971,16 @@
       <c r="G420">
         <v>232</v>
       </c>
-      <c r="H420" s="1">
+      <c r="H420">
         <v>14.1</v>
       </c>
-      <c r="I420" s="1">
+      <c r="I420">
         <v>15.5</v>
       </c>
-      <c r="J420" s="1">
+      <c r="J420">
         <v>12.6</v>
       </c>
-      <c r="K420" s="1">
+      <c r="K420">
         <v>90</v>
       </c>
     </row>
@@ -12007,16 +13003,16 @@
       <c r="G421">
         <v>232</v>
       </c>
-      <c r="H421" s="1">
+      <c r="H421">
         <v>24.9</v>
       </c>
-      <c r="I421" s="1">
+      <c r="I421">
         <v>25.2</v>
       </c>
-      <c r="J421" s="1">
+      <c r="J421">
         <v>23.6</v>
       </c>
-      <c r="K421" s="1">
+      <c r="K421">
         <v>95</v>
       </c>
     </row>
@@ -12039,20 +13035,20 @@
       <c r="G422">
         <v>232</v>
       </c>
-      <c r="H422" s="1">
+      <c r="H422">
         <v>26.2</v>
       </c>
-      <c r="I422" s="1">
+      <c r="I422">
         <v>22.3</v>
       </c>
-      <c r="J422" s="1">
+      <c r="J422">
         <v>27.6</v>
       </c>
-      <c r="K422" s="1">
+      <c r="K422">
         <v>80</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -12084,7 +13080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -12116,7 +13112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -12148,7 +13144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -12180,7 +13176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -12212,7 +13208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -12244,7 +13240,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -12276,7 +13272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -12308,7 +13304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -12340,7 +13336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
